--- a/izin-takip/rejected_leaves.xlsx
+++ b/izin-takip/rejected_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -64,48 +64,6 @@
   <si>
     <t>reddedilen</t>
   </si>
-  <si>
-    <t>ayşetekin@example.com</t>
-  </si>
-  <si>
-    <t>Ayşe</t>
-  </si>
-  <si>
-    <t>Tekin</t>
-  </si>
-  <si>
-    <t>ayşe.tekin@example.com</t>
-  </si>
-  <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
-    <t>2024-11-02</t>
-  </si>
-  <si>
-    <t>"29 Ekim tatilini köprü yaparak 6 gün izin kullanmak istiyorum."</t>
-  </si>
-  <si>
-    <t>berkbalcı@example.com</t>
-  </si>
-  <si>
-    <t>Berk</t>
-  </si>
-  <si>
-    <t>Balcı</t>
-  </si>
-  <si>
-    <t>berk.balcı@example.com</t>
-  </si>
-  <si>
-    <t>2024-12-26</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
-    <t>"Yılbaşı tatilini uzatmak için 5 gün izin istiyorum."</t>
-  </si>
 </sst>
 </file>
 
@@ -149,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,64 +171,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/izin-takip/rejected_leaves.xlsx
+++ b/izin-takip/rejected_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -53,16 +53,23 @@
     <t>ahmet.yılmaz@example.com</t>
   </si>
   <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>2024-08-17</t>
-  </si>
-  <si>
-    <t>"Kardeşimin düğünü için 6 gün izin talep ediyorum. Tarih değişikliği yapamam."</t>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amcamın vefatın nedeniyle izin alcam
+</t>
   </si>
   <si>
     <t>reddedilen</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
   </si>
 </sst>
 </file>
@@ -107,7 +114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,7 +151,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>54.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -168,6 +175,35 @@
         <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>16</v>
       </c>
     </row>

--- a/izin-takip/rejected_leaves.xlsx
+++ b/izin-takip/rejected_leaves.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -53,23 +53,115 @@
     <t>ahmet.yılmaz@example.com</t>
   </si>
   <si>
-    <t>2025-07-15</t>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>"Kardeşimin düğünü için 6 gün izin talep ediyorum. Tarih değişikliği yapamam."</t>
+  </si>
+  <si>
+    <t>reddedilen</t>
+  </si>
+  <si>
+    <t>mehmetkaya@example.com</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Kaya</t>
+  </si>
+  <si>
+    <t>mehmet.kaya@example.com</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>"Çocuğumun okul kaydı için 3 gün izin gerekiyor."</t>
+  </si>
+  <si>
+    <t>zeynepdemir@example.com</t>
+  </si>
+  <si>
+    <t>Zeynep</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>zeynep.demir@example.com</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>"Ailemle tatil planım var. 5 gün izin talep ediyorum."</t>
+  </si>
+  <si>
+    <t>ayşetekin@example.com</t>
+  </si>
+  <si>
+    <t>Ayşe</t>
+  </si>
+  <si>
+    <t>Tekin</t>
+  </si>
+  <si>
+    <t>ayşe.tekin@example.com</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-02</t>
+  </si>
+  <si>
+    <t>"29 Ekim tatilini köprü yaparak 6 gün izin kullanmak istiyorum."</t>
+  </si>
+  <si>
+    <t>canöztürk@example.com</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Öztürk</t>
+  </si>
+  <si>
+    <t>can.öztürk@example.com</t>
   </si>
   <si>
     <t>2024-07-16</t>
   </si>
   <si>
-    <t xml:space="preserve">amcamın vefatın nedeniyle izin alcam
-</t>
-  </si>
-  <si>
-    <t>reddedilen</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
+    <t>2024-07-27</t>
+  </si>
+  <si>
+    <t>"Yaz tatilim için 12 gün izin talep ediyorum."</t>
+  </si>
+  <si>
+    <t>elifarslan@example.com</t>
+  </si>
+  <si>
+    <t>Elif</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>elif.arslan@example.com</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>"1 Mayıs tatilinde aile ziyareti için 3 gün izin talep ediyorum."</t>
   </si>
 </sst>
 </file>
@@ -114,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,7 +243,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>54.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>9</v>
@@ -180,30 +272,146 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>55.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>16</v>
       </c>
     </row>
